--- a/general performance/contingency results matched.xlsx
+++ b/general performance/contingency results matched.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="switches" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="all subjects" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>gender</t>
   </si>
@@ -151,12 +151,42 @@
   <si>
     <t>significant</t>
   </si>
+  <si>
+    <t>CONTINGENCY</t>
+  </si>
+  <si>
+    <t>subject no.</t>
+  </si>
+  <si>
+    <t>response diff</t>
+  </si>
+  <si>
+    <t>rating hi</t>
+  </si>
+  <si>
+    <t>rating lo</t>
+  </si>
+  <si>
+    <t>rating diff</t>
+  </si>
+  <si>
+    <t>contingency hi</t>
+  </si>
+  <si>
+    <t>contingency lo</t>
+  </si>
+  <si>
+    <t>contingency diff</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +297,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -306,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,13 +378,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -614,11 +745,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="86770816"/>
-        <c:axId val="86772352"/>
+        <c:axId val="54338688"/>
+        <c:axId val="54340224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86770816"/>
+        <c:axId val="54338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86772352"/>
+        <c:crossAx val="54340224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86772352"/>
+        <c:axId val="54340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -757,7 +888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86770816"/>
+        <c:crossAx val="54338688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,11 +1219,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="86828928"/>
-        <c:axId val="86830464"/>
+        <c:axId val="54657408"/>
+        <c:axId val="54658944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86828928"/>
+        <c:axId val="54657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86830464"/>
+        <c:crossAx val="54658944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86830464"/>
+        <c:axId val="54658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1232,7 +1363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86828928"/>
+        <c:crossAx val="54657408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,7 +1490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1574,11 +1704,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89798912"/>
-        <c:axId val="89800704"/>
+        <c:axId val="54755328"/>
+        <c:axId val="54756864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89798912"/>
+        <c:axId val="54755328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89800704"/>
+        <c:crossAx val="54756864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1629,7 +1759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89800704"/>
+        <c:axId val="54756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1681,7 +1811,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1722,7 +1851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89798912"/>
+        <c:crossAx val="54755328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1737,7 +1866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1844,7 +1972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2056,11 +2183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89836928"/>
-        <c:axId val="89851392"/>
+        <c:axId val="54783360"/>
+        <c:axId val="54797824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89836928"/>
+        <c:axId val="54783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2143,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89851392"/>
+        <c:crossAx val="54797824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2151,7 +2277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89851392"/>
+        <c:axId val="54797824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2203,7 +2329,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2244,7 +2369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89836928"/>
+        <c:crossAx val="54783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2259,7 +2384,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2591,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89899392"/>
-        <c:axId val="89901312"/>
+        <c:axId val="54841344"/>
+        <c:axId val="54843264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89899392"/>
+        <c:axId val="54841344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2678,7 +2801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89901312"/>
+        <c:crossAx val="54843264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89901312"/>
+        <c:axId val="54843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2733,7 +2856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2774,7 +2896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89899392"/>
+        <c:crossAx val="54841344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2789,7 +2911,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3820,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +5751,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U7:U10 U12:U21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7487,12 +7608,2110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" s="16">
+        <v>31</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D28" si="0">B3-C3</f>
+        <v>-11.5</v>
+      </c>
+      <c r="E3" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="D3:G36" si="1">E3-F3</f>
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" ref="G3:J36" si="2">H3-I3</f>
+        <v>9.9700000000000011E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>22</v>
+      </c>
+      <c r="O3" s="15">
+        <f>173.5/2</f>
+        <v>86.75</v>
+      </c>
+      <c r="P3" s="15">
+        <f>89.5/2</f>
+        <v>44.75</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3:Q21" si="3">O3-P3</f>
+        <v>42</v>
+      </c>
+      <c r="R3" s="15">
+        <v>6.1666999999999996</v>
+      </c>
+      <c r="S3" s="15">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="T3" s="13">
+        <f t="shared" ref="T3:T5" si="4">R3-S3</f>
+        <v>2.8333999999999997</v>
+      </c>
+      <c r="U3" s="15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="V3" s="15">
+        <v>1.38E-2</v>
+      </c>
+      <c r="W3" s="15">
+        <f t="shared" ref="W3:W5" si="5">U3-V3</f>
+        <v>5.8199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" s="16">
+        <v>163.4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>145.6</v>
+      </c>
+      <c r="E4" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J4" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" s="23">
+        <v>26</v>
+      </c>
+      <c r="O4" s="15">
+        <f>92.5/2</f>
+        <v>46.25</v>
+      </c>
+      <c r="P4" s="15">
+        <f>44.3333/2</f>
+        <v>22.166650000000001</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="3"/>
+        <v>24.083349999999999</v>
+      </c>
+      <c r="R4" s="15">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="S4" s="15">
+        <v>2.1667000000000001</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="4"/>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.1305</v>
+      </c>
+      <c r="V4" s="15">
+        <v>4.58E-2</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" si="5"/>
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>207</v>
+      </c>
+      <c r="B5" s="16">
+        <v>34</v>
+      </c>
+      <c r="C5" s="16">
+        <v>19.833300000000001</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>14.166699999999999</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>1.6666999999999996</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="I5" s="16">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="2"/>
+        <v>8.1099999999999992E-2</v>
+      </c>
+      <c r="N5" s="23">
+        <v>32</v>
+      </c>
+      <c r="O5" s="15">
+        <f>37/2</f>
+        <v>18.5</v>
+      </c>
+      <c r="P5" s="15">
+        <f>53.1667/2</f>
+        <v>26.583349999999999</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="3"/>
+        <v>-8.0833499999999994</v>
+      </c>
+      <c r="R5" s="15">
+        <v>7</v>
+      </c>
+      <c r="S5" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="5"/>
+        <v>0.12159999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>208</v>
+      </c>
+      <c r="B6" s="16">
+        <v>107.5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>94</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>6</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="2"/>
+        <v>2.3299999999999998E-2</v>
+      </c>
+      <c r="N6" s="24">
+        <v>205</v>
+      </c>
+      <c r="O6" s="16">
+        <v>58.666699999999999</v>
+      </c>
+      <c r="P6" s="16">
+        <v>64.666700000000006</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>O6-P6</f>
+        <v>-6.0000000000000071</v>
+      </c>
+      <c r="R6" s="16">
+        <v>4.6666999999999996</v>
+      </c>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
+      <c r="T6" s="21">
+        <f>R6-S6</f>
+        <v>1.6666999999999996</v>
+      </c>
+      <c r="U6" s="16">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="V6" s="16">
+        <v>2.53E-2</v>
+      </c>
+      <c r="W6" s="16">
+        <f>U6-V6</f>
+        <v>6.3199999999999992E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>209</v>
+      </c>
+      <c r="B7" s="16">
+        <v>130.66669999999999</v>
+      </c>
+      <c r="C7" s="16">
+        <v>113.33329999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>17.333399999999997</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4.1666999999999996</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4.8333000000000004</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.66660000000000075</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="2"/>
+        <v>1.09E-2</v>
+      </c>
+      <c r="N7" s="25">
+        <v>206</v>
+      </c>
+      <c r="O7" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="P7" s="16">
+        <v>29.833300000000001</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="3"/>
+        <v>6.6666999999999987</v>
+      </c>
+      <c r="R7" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="S7" s="16">
+        <v>2</v>
+      </c>
+      <c r="T7" s="21">
+        <f>R7-S7</f>
+        <v>4.5</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8" s="16">
+        <v>40.833300000000001</v>
+      </c>
+      <c r="C8" s="16">
+        <v>23.166699999999999</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>17.666600000000003</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N8" s="25">
+        <v>301</v>
+      </c>
+      <c r="O8" s="16">
+        <v>71.5</v>
+      </c>
+      <c r="P8" s="16">
+        <v>52.333300000000001</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="3"/>
+        <v>19.166699999999999</v>
+      </c>
+      <c r="R8" s="16">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="S8" s="16">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="T8" s="21">
+        <f t="shared" ref="T8:T21" si="6">R8-S8</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.1042</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" ref="W8:W21" si="7">U8-V8</f>
+        <v>5.4199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>211</v>
+      </c>
+      <c r="B9" s="16">
+        <v>116.66670000000001</v>
+      </c>
+      <c r="C9" s="16">
+        <v>20.166699999999999</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>96.5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="2"/>
+        <v>1.9599999999999996E-2</v>
+      </c>
+      <c r="N9" s="25">
+        <v>303</v>
+      </c>
+      <c r="O9" s="16">
+        <v>129.66669999999999</v>
+      </c>
+      <c r="P9" s="16">
+        <v>131.83330000000001</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.1666000000000167</v>
+      </c>
+      <c r="R9" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="S9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="T9" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="16">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="7"/>
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>212</v>
+      </c>
+      <c r="B10" s="16">
+        <v>48.166699999999999</v>
+      </c>
+      <c r="C10" s="16">
+        <v>49</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.83330000000000126</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="2"/>
+        <v>5.2899999999999996E-2</v>
+      </c>
+      <c r="N10" s="25">
+        <v>304</v>
+      </c>
+      <c r="O10" s="16">
+        <v>33.833300000000001</v>
+      </c>
+      <c r="P10" s="16">
+        <v>43.666699999999999</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.8333999999999975</v>
+      </c>
+      <c r="R10" s="16">
+        <v>4.6666999999999996</v>
+      </c>
+      <c r="S10" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="T10" s="21">
+        <f t="shared" si="6"/>
+        <v>1.1666999999999996</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="V10" s="16">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="7"/>
+        <v>7.5899999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>213</v>
+      </c>
+      <c r="B11" s="16">
+        <v>26.166699999999999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66669999999999874</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4.6666999999999996</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3333999999999997</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.1174</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="2"/>
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N11" s="25">
+        <v>305</v>
+      </c>
+      <c r="O11" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P11" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="3"/>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="R11" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="S11" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="V11" s="16">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.14087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>214</v>
+      </c>
+      <c r="B12" s="16">
+        <v>49.833300000000001</v>
+      </c>
+      <c r="C12" s="16">
+        <v>52.333300000000001</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.8333000000000004</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="1"/>
+        <v>1.6666000000000003</v>
+      </c>
+      <c r="H12" s="16">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="2"/>
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="N12" s="25">
+        <v>306</v>
+      </c>
+      <c r="O12" s="16">
+        <v>47</v>
+      </c>
+      <c r="P12" s="16">
+        <v>48.666699999999999</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.6666999999999987</v>
+      </c>
+      <c r="R12" s="16">
+        <v>4.6666999999999996</v>
+      </c>
+      <c r="S12" s="16">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="T12" s="21">
+        <f t="shared" si="6"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="U12" s="16">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="V12" s="16">
+        <v>2.93E-2</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="7"/>
+        <v>6.8399999999999989E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>215</v>
+      </c>
+      <c r="B13" s="16">
+        <v>113.5</v>
+      </c>
+      <c r="C13" s="16">
+        <v>100.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="2"/>
+        <v>1.7899999999999996E-2</v>
+      </c>
+      <c r="N13" s="25">
+        <v>307</v>
+      </c>
+      <c r="O13" s="16">
+        <v>62.333300000000001</v>
+      </c>
+      <c r="P13" s="16">
+        <v>72.333299999999994</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999929</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="S13" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="T13" s="21">
+        <f t="shared" si="6"/>
+        <v>1.6666999999999996</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.1002</v>
+      </c>
+      <c r="V13" s="16">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="7"/>
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>216</v>
+      </c>
+      <c r="B14" s="16">
+        <v>91.166700000000006</v>
+      </c>
+      <c r="C14" s="16">
+        <v>74.5</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>16.666700000000006</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="1"/>
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="H14" s="16">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="2"/>
+        <v>3.32E-2</v>
+      </c>
+      <c r="N14" s="25">
+        <v>308</v>
+      </c>
+      <c r="O14" s="16">
+        <v>65.333299999999994</v>
+      </c>
+      <c r="P14" s="16">
+        <v>82.666700000000006</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="3"/>
+        <v>-17.333400000000012</v>
+      </c>
+      <c r="R14" s="16">
+        <v>6.1666999999999996</v>
+      </c>
+      <c r="S14" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="T14" s="21">
+        <f t="shared" si="6"/>
+        <v>1.6666999999999996</v>
+      </c>
+      <c r="U14" s="16">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="V14" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="7"/>
+        <v>3.4600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>217</v>
+      </c>
+      <c r="B15" s="16">
+        <v>79.166700000000006</v>
+      </c>
+      <c r="C15" s="16">
+        <v>61.666699999999999</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>17.500000000000007</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.33340000000000014</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="I15" s="16">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="2"/>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="N15" s="24">
+        <v>309</v>
+      </c>
+      <c r="O15" s="16">
+        <v>29.5</v>
+      </c>
+      <c r="P15" s="16">
+        <v>100.5</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="3"/>
+        <v>-71</v>
+      </c>
+      <c r="R15" s="16">
+        <v>6.1666999999999996</v>
+      </c>
+      <c r="S15" s="16">
+        <v>2.1667000000000001</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="7"/>
+        <v>9.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>218</v>
+      </c>
+      <c r="B16" s="16">
+        <v>36.833300000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <v>34.166699999999999</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6666000000000025</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="2"/>
+        <v>8.7399999999999992E-2</v>
+      </c>
+      <c r="N16" s="25">
+        <v>310</v>
+      </c>
+      <c r="O16" s="16">
+        <v>70.5</v>
+      </c>
+      <c r="P16" s="16">
+        <v>59.5</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="R16" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="16">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="V16" s="16">
+        <v>2.98E-2</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="7"/>
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>219</v>
+      </c>
+      <c r="B17" s="16">
+        <v>76.333299999999994</v>
+      </c>
+      <c r="C17" s="16">
+        <v>83.666700000000006</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="0"/>
+        <v>-7.3334000000000117</v>
+      </c>
+      <c r="E17" s="16">
+        <v>6.3333000000000004</v>
+      </c>
+      <c r="F17" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="1"/>
+        <v>1.8333000000000004</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="2"/>
+        <v>3.0399999999999996E-2</v>
+      </c>
+      <c r="N17" s="25">
+        <v>311</v>
+      </c>
+      <c r="O17" s="16">
+        <v>128.4</v>
+      </c>
+      <c r="P17" s="16">
+        <v>114.4</v>
+      </c>
+      <c r="Q17" s="21">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R17" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="T17" s="21">
+        <f t="shared" si="6"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>220</v>
+      </c>
+      <c r="B18" s="16">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="C18" s="16">
+        <v>38.166699999999999</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="0"/>
+        <v>-11.5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>2.1666999999999996</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="I18" s="16">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="2"/>
+        <v>9.0899999999999981E-2</v>
+      </c>
+      <c r="N18" s="25">
+        <v>312</v>
+      </c>
+      <c r="O18" s="16">
+        <v>126.66670000000001</v>
+      </c>
+      <c r="P18" s="16">
+        <v>133.33330000000001</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.6666000000000025</v>
+      </c>
+      <c r="R18" s="16">
+        <v>3.8332999999999999</v>
+      </c>
+      <c r="S18" s="16">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="6"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="U18" s="16">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="V18" s="16">
+        <v>2.29E-2</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="7"/>
+        <v>8.7000000000000029E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>221</v>
+      </c>
+      <c r="B19" s="16">
+        <v>55.5</v>
+      </c>
+      <c r="C19" s="16">
+        <v>58</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="E19" s="16">
+        <v>4.8333000000000004</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="1"/>
+        <v>1.6666000000000003</v>
+      </c>
+      <c r="H19" s="16">
+        <v>9.64E-2</v>
+      </c>
+      <c r="I19" s="16">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="2"/>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="N19" s="25">
+        <v>313</v>
+      </c>
+      <c r="O19" s="16">
+        <v>181.83330000000001</v>
+      </c>
+      <c r="P19" s="16">
+        <v>140.83330000000001</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="R19" s="16">
+        <v>5</v>
+      </c>
+      <c r="S19" s="16">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="6"/>
+        <v>0.66669999999999963</v>
+      </c>
+      <c r="U19" s="16">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="V19" s="16">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="7"/>
+        <v>2.6600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>222</v>
+      </c>
+      <c r="B20" s="16">
+        <v>57.166699999999999</v>
+      </c>
+      <c r="C20" s="16">
+        <v>54</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="0"/>
+        <v>3.1666999999999987</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4.8333000000000004</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2.1667000000000001</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="1"/>
+        <v>2.6666000000000003</v>
+      </c>
+      <c r="H20" s="16">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="2"/>
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="N20" s="25">
+        <v>314</v>
+      </c>
+      <c r="O20" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="P20" s="16">
+        <v>56.666699999999999</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="3"/>
+        <v>-21.166699999999999</v>
+      </c>
+      <c r="R20" s="16">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="S20" s="16">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.1085</v>
+      </c>
+      <c r="V20" s="16">
+        <v>5.62E-2</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="7"/>
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>223</v>
+      </c>
+      <c r="B21" s="16">
+        <v>64.666700000000006</v>
+      </c>
+      <c r="C21" s="16">
+        <v>55.333300000000001</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="0"/>
+        <v>9.3334000000000046</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6.1666999999999996</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="1"/>
+        <v>3.8333999999999997</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="I21" s="16">
+        <v>4.99E-2</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="2"/>
+        <v>5.0699999999999995E-2</v>
+      </c>
+      <c r="N21" s="25">
+        <v>315</v>
+      </c>
+      <c r="O21" s="16">
+        <v>29.166699999999999</v>
+      </c>
+      <c r="P21" s="16">
+        <v>29.833300000000001</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.66660000000000252</v>
+      </c>
+      <c r="R21" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="S21" s="16">
+        <v>3.8332999999999999</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="6"/>
+        <v>1.3333999999999997</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0.1041</v>
+      </c>
+      <c r="V21" s="16">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="7"/>
+        <v>3.0200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>224</v>
+      </c>
+      <c r="B22" s="16">
+        <v>140.16669999999999</v>
+      </c>
+      <c r="C22" s="16">
+        <v>127.5</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="0"/>
+        <v>12.666699999999992</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5.8333000000000004</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="1"/>
+        <v>3.3333000000000004</v>
+      </c>
+      <c r="H22" s="16">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="2"/>
+        <v>2.07E-2</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="10">
+        <f>AVERAGE(O3:O21)</f>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="P22" s="10">
+        <f>AVERAGE(P3:P21)</f>
+        <v>66.503505263157891</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22:V22" si="8">AVERAGE(R3:R21)</f>
+        <v>5.1666842105263155</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="8"/>
+        <v>3.2508789473684208</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10">
+        <f t="shared" si="8"/>
+        <v>9.4652941176470606E-2</v>
+      </c>
+      <c r="V22" s="10">
+        <f t="shared" si="8"/>
+        <v>3.4972352941176468E-2</v>
+      </c>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>225</v>
+      </c>
+      <c r="B23" s="16">
+        <v>45.666699999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <v>103.5</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="0"/>
+        <v>-57.833300000000001</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5.3333000000000004</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="H23" s="16">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="2"/>
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="10">
+        <f>TTEST(O3:O21,P3:P21,2,1)</f>
+        <v>0.81156589955716241</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="17">
+        <f t="shared" ref="S23" si="9">TTEST(R3:R21,S3:S21,2,1)</f>
+        <v>2.8764546446768654E-5</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="16"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>226</v>
+      </c>
+      <c r="B24" s="16">
+        <v>50.166699999999999</v>
+      </c>
+      <c r="C24" s="16">
+        <v>49</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>1.1666999999999987</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="1"/>
+        <v>0.66670000000000007</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.1037</v>
+      </c>
+      <c r="I24" s="16">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="2"/>
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>227</v>
+      </c>
+      <c r="B25" s="16">
+        <v>87</v>
+      </c>
+      <c r="C25" s="16">
+        <v>86.333299999999994</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66670000000000584</v>
+      </c>
+      <c r="E25" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F25" s="16">
+        <v>3.8332999999999999</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3333999999999997</v>
+      </c>
+      <c r="H25" s="16">
+        <v>4.87E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>228</v>
+      </c>
+      <c r="B26" s="16">
+        <v>39.333300000000001</v>
+      </c>
+      <c r="C26" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
+        <v>3.8333000000000013</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F26" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.1285</v>
+      </c>
+      <c r="I26" s="16">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="2"/>
+        <v>5.2199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>229</v>
+      </c>
+      <c r="B27" s="16">
+        <v>105.5</v>
+      </c>
+      <c r="C27" s="16">
+        <v>94.333299999999994</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="0"/>
+        <v>11.166700000000006</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16">
+        <v>4.1666999999999996</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.16669999999999963</v>
+      </c>
+      <c r="H27" s="16">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <v>2.23E-2</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="2"/>
+        <v>1.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>230</v>
+      </c>
+      <c r="B28" s="16">
+        <v>99.666700000000006</v>
+      </c>
+      <c r="C28" s="16">
+        <v>37</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
+        <v>62.666700000000006</v>
+      </c>
+      <c r="E28" s="16">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="1"/>
+        <v>2.8333999999999997</v>
+      </c>
+      <c r="H28" s="16">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="I28" s="16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="2"/>
+        <v>1.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>231</v>
+      </c>
+      <c r="B29" s="16">
+        <v>32.5</v>
+      </c>
+      <c r="C29" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" ref="D29" si="10">B29-C29</f>
+        <v>-4</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" ref="G29" si="11">E29-F29</f>
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.1497</v>
+      </c>
+      <c r="I29" s="16">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" ref="J29" si="12">H29-I29</f>
+        <v>8.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>232</v>
+      </c>
+      <c r="B30" s="16">
+        <v>95.333299999999994</v>
+      </c>
+      <c r="C30" s="16">
+        <v>105.66670000000001</v>
+      </c>
+      <c r="D30" s="20">
+        <f>B30-C30</f>
+        <v>-10.333400000000012</v>
+      </c>
+      <c r="E30" s="16">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="G30" s="21">
+        <f>E30-F30</f>
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>2.18E-2</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" ref="J30:J37" si="13">H30-I30</f>
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>233</v>
+      </c>
+      <c r="B31" s="16">
+        <v>63.166699999999999</v>
+      </c>
+      <c r="C31" s="16">
+        <v>65.333299999999994</v>
+      </c>
+      <c r="D31" s="20">
+        <f>B31-C31</f>
+        <v>-2.1665999999999954</v>
+      </c>
+      <c r="E31" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="G31" s="21">
+        <f>E31-F31</f>
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="H31" s="16">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="I31" s="16">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="13"/>
+        <v>4.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>234</v>
+      </c>
+      <c r="B32" s="16">
+        <v>80.166700000000006</v>
+      </c>
+      <c r="C32" s="16">
+        <v>58</v>
+      </c>
+      <c r="D32" s="21">
+        <f>B32-C32</f>
+        <v>22.166700000000006</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F32" s="16">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="G32" s="21">
+        <f>E32-F32</f>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="H32" s="16">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="I32" s="16">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="13"/>
+        <v>4.8799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>235</v>
+      </c>
+      <c r="B33" s="16">
+        <v>78.666700000000006</v>
+      </c>
+      <c r="C33" s="16">
+        <v>62.333300000000001</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" ref="D33" si="14">B33-C33</f>
+        <v>16.333400000000005</v>
+      </c>
+      <c r="E33" s="16">
+        <v>5.1666999999999996</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" ref="G33" si="15">E33-F33</f>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.1067</v>
+      </c>
+      <c r="I33" s="16">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="13"/>
+        <v>8.2299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>236</v>
+      </c>
+      <c r="B34" s="16">
+        <v>128.16669999999999</v>
+      </c>
+      <c r="C34" s="16">
+        <v>110.5</v>
+      </c>
+      <c r="D34" s="21">
+        <f>B34-C34</f>
+        <v>17.666699999999992</v>
+      </c>
+      <c r="E34" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="G34" s="21">
+        <f>E34-F34</f>
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H34" s="16">
+        <v>4.24E-2</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1.55E-2</v>
+      </c>
+      <c r="J34" s="21">
+        <f>H34-I34</f>
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>237</v>
+      </c>
+      <c r="B35" s="16">
+        <v>50.166699999999999</v>
+      </c>
+      <c r="C35" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D35" s="21">
+        <f>B35-C35</f>
+        <v>5.6666999999999987</v>
+      </c>
+      <c r="E35" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="F35" s="16">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="G35" s="21">
+        <f>E35-F35</f>
+        <v>2.1667000000000001</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.1239</v>
+      </c>
+      <c r="I35" s="16">
+        <v>3.09E-2</v>
+      </c>
+      <c r="J35" s="21">
+        <f>H35-I35</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>240</v>
+      </c>
+      <c r="B36" s="16">
+        <v>98.5</v>
+      </c>
+      <c r="C36" s="16">
+        <v>122.66670000000001</v>
+      </c>
+      <c r="D36" s="20">
+        <f>B36-C36</f>
+        <v>-24.166700000000006</v>
+      </c>
+      <c r="E36" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F36" s="16">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="G36" s="21">
+        <f>E36-F36</f>
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H36" s="16">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="I36" s="16">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="J36" s="21">
+        <f>H36-I36</f>
+        <v>1.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>241</v>
+      </c>
+      <c r="B37" s="16">
+        <v>55.666699999999999</v>
+      </c>
+      <c r="C37" s="16">
+        <v>47.333300000000001</v>
+      </c>
+      <c r="D37" s="21">
+        <f>B37-C37</f>
+        <v>8.3333999999999975</v>
+      </c>
+      <c r="E37" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="16">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="G37" s="21">
+        <f>E37-F37</f>
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.1084</v>
+      </c>
+      <c r="I37" s="16">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J37" s="21">
+        <f>H37-I37</f>
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>242</v>
+      </c>
+      <c r="B38" s="16">
+        <v>60</v>
+      </c>
+      <c r="C38" s="16">
+        <v>47.666699999999999</v>
+      </c>
+      <c r="D38" s="21">
+        <f>B38-C38</f>
+        <v>12.333300000000001</v>
+      </c>
+      <c r="E38" s="16">
+        <v>5.3333000000000004</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="G38" s="21">
+        <f>E38-F38</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="H38" s="16">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="I38" s="16">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="J38" s="21">
+        <f>H38-I38</f>
+        <v>2.4600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10">
+        <f>AVERAGE(B3:B38)</f>
+        <v>73.862975000000034</v>
+      </c>
+      <c r="C39" s="10">
+        <f>AVERAGE(C3:C38)</f>
+        <v>62.536111111111119</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
+        <f>AVERAGE(E3:E38)</f>
+        <v>4.8851888888888881</v>
+      </c>
+      <c r="F39" s="10">
+        <f>AVERAGE(F3:F38)</f>
+        <v>2.9481416666666664</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10">
+        <f>AVERAGE(H3:H38)</f>
+        <v>8.9419999999999986E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <f>AVERAGE(I3:I38)</f>
+        <v>4.0780555555555549E-2</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="17">
+        <f>TTEST(B3:B38,C3:C38,2,1)</f>
+        <v>4.5785296046533648E-2</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="17">
+        <f>TTEST(E3:E38,F3:F38,2,1)</f>
+        <v>3.1772212404884852E-12</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H11:I11 D13:D23 D25:D28">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:F11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D32 D34:D38">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>